--- a/myshell-python-e2e-testcase/TestData/testcase.xlsx
+++ b/myshell-python-e2e-testcase/TestData/testcase.xlsx
@@ -1261,7 +1261,7 @@
       <selection pane="bottomLeft" activeCell="E5" sqref="D3 E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col width="28.625" customWidth="1" style="2" min="1" max="1"/>
     <col width="27.375" customWidth="1" style="2" min="2" max="2"/>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       <c r="E3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>T</t>
         </is>

--- a/myshell-python-e2e-testcase/TestData/testcase.xlsx
+++ b/myshell-python-e2e-testcase/TestData/testcase.xlsx
@@ -1258,10 +1258,10 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="D3 E5"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="0"/>
   <cols>
     <col width="28.625" customWidth="1" style="2" min="1" max="1"/>
     <col width="27.375" customWidth="1" style="2" min="2" max="2"/>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>测试003</t>
+          <t>验证游客模式无法进入奖励中心</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>

--- a/myshell-python-e2e-testcase/TestData/testcase.xlsx
+++ b/myshell-python-e2e-testcase/TestData/testcase.xlsx
@@ -1253,20 +1253,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F4"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col width="28.625" customWidth="1" style="2" min="1" max="1"/>
     <col width="27.375" customWidth="1" style="2" min="2" max="2"/>
-    <col width="29" customWidth="1" style="2" min="3" max="3"/>
-    <col width="20.5" customWidth="1" style="2" min="4" max="4"/>
+    <col width="22.375" customWidth="1" style="2" min="3" max="3"/>
+    <col width="38.875" customWidth="1" style="2" min="4" max="4"/>
     <col width="17.875" customWidth="1" style="2" min="5" max="5"/>
     <col width="26.5" customWidth="1" style="3" min="6" max="6"/>
     <col width="9" customWidth="1" style="2" min="7" max="7"/>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
@@ -1388,9 +1388,39 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>test004</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>验证游客模式gpt4无法发送消息</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>游客模式</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>GPT-4 机器人仅对已注册会员开放。请先登录或注册，或者与非 GPT-4 机器人进行交流</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="0" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>T</t>
         </is>
